--- a/output/fit_clients/fit_round_72.xlsx
+++ b/output/fit_clients/fit_round_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8000324224.781706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004885980302889484</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.952828084700346</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9697091673924998</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.952828084700346</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5002455252.511036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004203869460783965</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7793767628645305</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.331777568442723</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.048726368645511</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.331777568442723</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6122881128.665359</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003646804178151869</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.997842730961203</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9762737571962937</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.997842730961203</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3537806988.114448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004573355231080822</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7574555880414563</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.537769503531642</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9731465473592765</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.537769503531642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6788505071.914233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001848111046296133</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.387984640659407</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.893400115215382</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.387984640659407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6169036228.177194</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008218200677809561</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.385997137009466</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.919343778352437</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.385997137009466</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5523642089.37104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003203795793520164</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.442454172970521</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9866035818461298</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.442454172970521</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4379476326.343967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003786377499325899</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8837134568099587</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.908720502543214</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.128858627998017</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.908720502543214</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4337538587.742505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003637264890091132</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.601113036122221</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9641787310205739</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.601113036122221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4147627569.90455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00134341958049833</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.426900400577555</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8045595323072943</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.426900400577555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6550027956.55255</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001725023272281078</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.011293478233736</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.010200680208205</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.011293478233736</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4062308405.034063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004436793041094617</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.520865226485747</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.053757646124131</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.520865226485747</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8599122194.646156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002996564935821441</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.909894044258314</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9181309080669177</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.909894044258314</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7280572283.03552</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004217377164840553</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.440739635683127</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.022811880687928</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.440739635683127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5762228956.848301</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003536583590322748</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.988029945733855</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9365837629705829</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.988029945733855</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5028490104.235892</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002185009333685904</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.959903529978994</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9663638082210387</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.959903529978994</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6289681081.990394</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008163432863314839</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.871213635286116</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9468054627064824</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.871213635286116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4299984291.251953</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001587049395589549</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.722200340177886</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9377409292580062</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.722200340177886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4059084965.043643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001089982607889123</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5809966327752785</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.117328038706473</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8226797299512868</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.117328038706473</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5404056417.458416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004010814965072089</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.796039285947217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8855423803099086</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.796039285947217</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4806296692.301353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003956482017789141</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5112610563137785</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.461234002039981</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.693120315223659</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.461234002039981</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6844855984.421298</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001299943667449322</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.237689328418284</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8764799385859029</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.237689328418284</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5679904059.956759</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004375988823413252</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.147634501365815</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.023341876378145</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.147634501365815</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7047985747.077167</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003643021667340724</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.240476898206938</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9669093059647449</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.240476898206938</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3982153940.200658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001156094149594827</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.313413143980754</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8396846780063513</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.313413143980754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8519810688.64632</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003345383248051776</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.2242289203915648</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.740144291911416</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4568981332562261</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.740144291911416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8395528334.206528</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004202580068056199</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.945831390814734</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9365837629705829</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.945831390814734</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>8114191082.778879</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001245310445453421</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.024253990093671</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.00489311387854</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.024253990093671</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6752147073.293171</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003652307462561075</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.586237965995188</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9158144589979722</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.586237965995188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7597894083.151408</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003331225421954722</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.490306891709407</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9680764850773862</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.490306891709407</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5262497739.822874</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009681803067716778</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.003178246173352</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9535747131342037</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.003178246173352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5713640786.665471</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003272400732894463</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.134755660411798</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.87089437286542</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.134755660411798</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6245942417.87097</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005424410533834176</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6418026041241375</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.863191680711046</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7888468655100721</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.863191680711046</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6434394747.615789</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002591846406047089</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.710013303489939</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9456909600748672</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.710013303489939</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6109215549.574584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00366844431908289</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.712697776252343</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.032208939861061</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.712697776252343</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6140296281.482608</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004170289699551037</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.803559921462538</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.036868334640397</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.803559921462538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3588733461.58947</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003566924303706644</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.548389133948275</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9210628486485615</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.548389133948275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4425876877.687557</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002922683805999155</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.006199313817533</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8770302783896767</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.006199313817533</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6728288288.5363</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004282437065073062</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.742820374638023</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9909905393563259</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.742820374638023</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5176113784.334399</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001446505035254467</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.061661227145848</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9529902540452357</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.061661227145848</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5983149554.079993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00554016953541248</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.61387577144668</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.000641709950885</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.61387577144668</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6161741027.264333</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004135255029206219</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.835738991569309</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.24295346741544</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.835738991569309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4736367619.403058</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002015961064869323</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1187671453627488</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.537169899267044</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.174002132906808</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.537169899267044</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4038510241.032614</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001669862005806894</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.094513188395104</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9806612568666442</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.094513188395104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>6971091489.908576</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00332981994700875</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7193055353078993</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.741215375841434</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9328168719027916</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.741215375841434</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6197720018.65783</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002479903452185882</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.547366913331631</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9093768653398774</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.547366913331631</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7586333276.468048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003036368085548671</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.390269728355574</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9784470808522053</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.390269728355574</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5170154162.080254</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004942728011699518</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.549131936103312</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8801161131215042</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.549131936103312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5568098934.335046</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003332975157229009</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.125086307889941</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.054701352423776</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.125086307889941</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4214803276.498048</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004798836670570844</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>17</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.549542451896965</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9664101507602755</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.549542451896965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7482115834.590327</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001764367001028212</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.851655378473637</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8849129890001406</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.851655378473637</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6137023098.222406</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002613737990225356</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8784359538079066</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.7311424361351</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.156081814190197</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.7311424361351</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5860168271.486119</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005639179112410729</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8168230553816466</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.472530987565587</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.032369298351834</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.472530987565587</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6568661777.171032</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003691821885397043</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.621296697084162</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9291555912344596</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.621296697084162</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6103269520.802633</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002534939828126449</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>14</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9197102408603747</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.751801214370327</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.171953689881621</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.751801214370327</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5294055617.459287</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003438211366805052</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.673583431365885</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8466347158143154</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.673583431365885</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5110902115.352235</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002862809870406692</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.707609177554561</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.333663228733178</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9168057243401065</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.333663228733178</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7567941854.66135</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004324341810825411</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.774029142617694</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9198847024573629</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.774029142617694</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3896103838.313091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003766634436351053</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.508284443273983</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8497957944611145</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.508284443273983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5682363812.4395</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005248956869199595</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.974248847745436</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9468685285798003</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.974248847745436</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5479603895.062173</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003069145633928036</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7184023990193527</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.211484568967897</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9730563569140349</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.211484568967897</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8341595783.526985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00372173943910636</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.319648996954709</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9129310722617389</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.319648996954709</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4230267983.435149</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004005325192742441</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.878485637324151</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9169652749986013</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.878485637324151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6943311129.873099</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005216947528024751</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.080799988870726</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.024415617728314</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.080799988870726</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5604334797.281132</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00405336438938778</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.848000072633512</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.932586404873465</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.848000072633512</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5216288800.028666</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00480112191109512</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.12875274107848</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.906988683790662</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.12875274107848</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8658697566.262152</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002387531357632036</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.348528724418099</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7394462439447451</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.348528724418099</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6221958311.219314</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.00104194041281871</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.415119429082238</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.010707748987741</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.415119429082238</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5656312744.090493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003613271429376882</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.996831468390192</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9227625387795396</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.996831468390192</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3804698374.211886</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00377058735142618</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6406406491297354</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.872132817454335</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8377032152451998</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.872132817454335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6190299914.554064</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001996868866518795</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4205740529329077</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.47868031329355</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.824698896732754</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.47868031329355</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7560976421.187108</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001167369953774018</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.022053535072479</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.98282487847902</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.022053535072479</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5686241157.918766</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003278000387891082</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.747856210633437</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8999022370836705</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.747856210633437</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5206123151.209448</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003975440228644243</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.713319108233568</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8867493197738925</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.713319108233568</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5129094442.107073</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002536784056282983</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
         <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.719436312899099</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9507744421355565</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.719436312899099</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6060955093.777458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003713581698226826</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.080284263307079</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.002221342847327</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.080284263307079</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6764279049.08689</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004087466163085276</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.666871631404097</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9371784538090453</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.666871631404097</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8874536011.61668</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002636778588525865</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.103293740876355</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9833612448531094</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.103293740876355</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7728339810.194959</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003496512283225752</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.778995307064348</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9828704448757887</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.778995307064348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7376228509.396986</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003976603290311322</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.460041668044473</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.005927187232263</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.460041668044473</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6942822056.74774</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004699569166543647</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8690144221486668</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.496123315535904</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.10837210474313</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.496123315535904</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9791557106.572477</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003026483773376522</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.181432488036245</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8307567213203844</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.181432488036245</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6655232627.768948</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005331227871581434</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.455026558334092</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.968621018294329</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.455026558334092</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4512788590.019938</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002848061005262219</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1834506666307632</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.191917246047824</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.1871786031760231</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.191917246047824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8797328277.653234</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002546638420418835</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.816138432175726</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.002791995297871</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.816138432175726</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3908883739.704336</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001507827439388286</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.188851841890605</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9725163182383602</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.188851841890605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7768639030.259709</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004663537214781008</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.649485909260657</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8641394708872501</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.649485909260657</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5748802119.509447</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003938471421542254</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.024553344906887</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9768290032871332</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.024553344906887</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4635931370.072873</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002397455797297242</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.848473818406399</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9746367549368788</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.848473818406399</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4909405799.725615</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004588436931212928</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.90794849714118</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8306668690058275</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.90794849714118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3300279757.057113</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003181911513756726</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.992632618444136</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.069845897489636</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.992632618444136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5327368445.178816</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001815843544668345</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.569790076104028</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9366156405709638</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.569790076104028</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6291516034.79481</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009428487573067623</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.971776989333385</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-0.408248290463863</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.971776989333385</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7115810666.598331</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002227472554903304</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.114144866286784</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9557840331455654</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.114144866286784</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7829319815.505424</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003040561459314453</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>20</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.353227312341254</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9286200674670573</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.353227312341254</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5939053953.526072</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004413623459075831</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.857217933838776</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9076027664942927</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.857217933838776</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6967186714.744941</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00323316539992904</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.628395071863278</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8855255223729742</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.628395071863278</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3699809286.357725</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005821678318375881</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.530402485921214</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9140855183977483</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.530402485921214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5899571791.598188</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002487693659638611</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.743510084465276</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8447288562341755</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.743510084465276</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7921639578.640614</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001144760359852447</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6185784159728637</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.837199299892999</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9040771493161062</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.837199299892999</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_72.xlsx
+++ b/output/fit_clients/fit_round_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8000324224.781706</v>
+        <v>2309412186.384586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004885980302889484</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18</v>
+        <v>0.1100948039992492</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03146929338894034</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1154706130.351875</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2112048140.313203</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1580107308151617</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04947955769083168</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5002455252.511036</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004203869460783965</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+      <c r="J3" t="n">
+        <v>1056024127.470427</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6122881128.665359</v>
+        <v>3874021101.549048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003646804178151869</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15</v>
+        <v>0.1592377072661217</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02802683976585266</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1937010555.931256</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3537806988.114448</v>
+        <v>2767350211.554586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004573355231080822</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09691287341115319</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04806136053917867</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1383675190.880468</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6788505071.914233</v>
+        <v>2538008975.155501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001848111046296133</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1299646853470592</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0506499280826443</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1269004458.859362</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2639486593.386854</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08901252182352933</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03273937292283452</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6169036228.177194</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0008218200677809561</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1319743296.219735</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5523642089.37104</v>
+        <v>2394196459.181746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003203795793520164</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1370274719873742</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02119218922124507</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1197098225.075281</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4379476326.343967</v>
+        <v>2229771030.170897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003786377499325899</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1854030481647309</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02839598250375682</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1114885509.709643</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4337538587.742505</v>
+        <v>5954964159.883698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003637264890091132</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1565726279567689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03334416771349516</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2977482253.093823</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4147627569.90455</v>
+        <v>4011490162.387137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00134341958049833</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1293538753013909</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03816871434251348</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2005745094.581741</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6550027956.55255</v>
+        <v>2386288603.837934</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001725023272281078</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20</v>
+        <v>0.194458809190754</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04328817738535674</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1193144263.655398</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4062308405.034063</v>
+        <v>4207678643.015614</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004436793041094617</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.09224714515397936</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02680567914528503</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2103839365.792626</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8599122194.646156</v>
+        <v>3103004473.325796</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002996564935821441</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>0.1468684545265867</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0363222842282155</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1551502263.556775</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7280572283.03552</v>
+        <v>1486805049.383354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004217377164840553</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>22</v>
+        <v>0.09321651172641984</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03311281885867828</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>743402607.1040523</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5762228956.848301</v>
+        <v>1851182027.844979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003536583590322748</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.08208281792565281</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04182006048199995</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>925591102.6052926</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5028490104.235892</v>
+        <v>5173105634.312494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002185009333685904</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1725598550984012</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03317390308426041</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2586552793.698503</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6289681081.990394</v>
+        <v>3274512634.727662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008163432863314839</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.157537661512915</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02548397907194816</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>19</v>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1637256327.694555</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4299984291.251953</v>
+        <v>1168423081.436491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001587049395589549</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1619557574003748</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01806651251411365</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>584211610.8597778</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4059084965.043643</v>
+        <v>1787594832.680862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001089982607889123</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1440059348476057</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02616357895721872</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>893797465.2105547</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5404056417.458416</v>
+        <v>2541706130.056434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004010814965072089</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13</v>
+        <v>0.09172341040565357</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03071500932019502</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1270853049.088995</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4806296692.301353</v>
+        <v>2927492804.284364</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003956482017789141</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.09459661691400348</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04149606666979132</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1463746467.91554</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6844855984.421298</v>
+        <v>1461006204.613441</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001299943667449322</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1507058269558548</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04962300000353671</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>730503094.7159969</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5679904059.956759</v>
+        <v>3766181624.982968</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004375988823413252</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.1000904547473096</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03416514628114362</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1883090796.1111</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7047985747.077167</v>
+        <v>1483820667.177955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003643021667340724</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.1110672825025091</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02555630403158811</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>741910286.1511124</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3982153940.200658</v>
+        <v>1446362329.787932</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001156094149594827</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.109877482099339</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02864102848541945</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>723181246.1574419</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8519810688.64632</v>
+        <v>3622985028.278543</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003345383248051776</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1580125393627078</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0198078267252234</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1811492542.921227</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8395528334.206528</v>
+        <v>3615576348.732133</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004202580068056199</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18</v>
+        <v>0.1152808822952475</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04502354218384931</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1807788238.938477</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>8114191082.778879</v>
+        <v>3941112709.083215</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001245310445453421</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1107527650886018</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04316909194352132</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>19</v>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1970556375.368729</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6752147073.293171</v>
+        <v>2287884390.010301</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003652307462561075</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1284419479890404</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03498492130780027</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1143942265.148684</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7597894083.151408</v>
+        <v>952864801.4062785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003331225421954722</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
+        <v>0.06753806641295344</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04279442191984516</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>476432410.216748</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5262497739.822874</v>
+        <v>1313781123.348205</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009681803067716778</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08775585664233322</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02563863392922435</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>656890591.3363626</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5713640786.665471</v>
+        <v>2230724912.120266</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003272400732894463</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1950632742373702</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06059236882317421</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1115362517.101048</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6245942417.87097</v>
+        <v>1092613926.754999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005424410533834176</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22</v>
+        <v>0.121114727965087</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02272545469822847</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>546306985.9344028</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6434394747.615789</v>
+        <v>1195213392.557253</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002591846406047089</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>18</v>
+        <v>0.07711055155495394</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04295394157674689</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>597606671.9499739</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6109215549.574584</v>
+        <v>2969498446.878256</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00366844431908289</v>
-      </c>
-      <c r="G36" t="b">
+        <v>0.180441893184811</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02435913816627532</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="H36" t="n">
-        <v>20</v>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1484749207.700236</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6140296281.482608</v>
+        <v>1973213277.921252</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004170289699551037</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>18</v>
+        <v>0.09205636655046996</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02777822342208714</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>986606662.4735585</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3588733461.58947</v>
+        <v>2024666615.928917</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003566924303706644</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1138662745734902</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04002508464387201</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1012333283.014172</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4425876877.687557</v>
+        <v>1837965823.461462</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002922683805999155</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1356877803746662</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03233382637947303</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>918982930.7600169</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6728288288.5363</v>
+        <v>1115193055.287106</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004282437065073062</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.117451248249579</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04701245182198239</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>557596590.0865555</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5176113784.334399</v>
+        <v>2691481960.71769</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001446505035254467</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
+        <v>0.1248742320965247</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04114268062795871</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1345740986.777076</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5983149554.079993</v>
+        <v>2774123714.188426</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00554016953541248</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>18</v>
+        <v>0.08342327265811172</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03291985655550075</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1387061801.879507</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6161741027.264333</v>
+        <v>2881258941.762797</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004135255029206219</v>
-      </c>
-      <c r="G43" t="b">
+        <v>0.1993730609769783</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01656735046347823</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="n">
-        <v>18</v>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1440629481.100072</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4736367619.403058</v>
+        <v>2231021160.384801</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002015961064869323</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19</v>
+        <v>0.07162204391737791</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03606979989513405</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1115510732.532995</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4038510241.032614</v>
+        <v>2065983828.47691</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001669862005806894</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1457581245979352</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04704612989317997</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1032991911.682114</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>6971091489.908576</v>
+        <v>3907001151.68792</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00332981994700875</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1599811689571249</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04851482226251067</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1953500539.992332</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6197720018.65783</v>
+        <v>4063465701.40716</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002479903452185882</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1818377984405566</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05725546490869771</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2031732853.321691</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7586333276.468048</v>
+        <v>3453367134.707969</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003036368085548671</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.07034987660357447</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03608206074499538</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1726683633.396187</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5170154162.080254</v>
+        <v>1546184764.717438</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004942728011699518</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1535635008132652</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03286408169995187</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>773092407.1073164</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5568098934.335046</v>
+        <v>2708797693.516895</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003332975157229009</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1313952471080745</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05080904362795034</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1354398927.234617</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4214803276.498048</v>
+        <v>1125101899.806463</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004798836670570844</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1213090264030232</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0516546172162974</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>562551013.4816474</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7482115834.590327</v>
+        <v>4670732957.565906</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001764367001028212</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>17</v>
+        <v>0.1271733547277265</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04034095464029226</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2335366495.689333</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6137023098.222406</v>
+        <v>2463197801.361685</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002613737990225356</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1777854964256464</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02661132803963773</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1231598970.112725</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5860168271.486119</v>
+        <v>3871368202.531665</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005639179112410729</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+        <v>0.1623478218312052</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04125586346663183</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1935684155.139997</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3042355534.389067</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1599637998246378</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02979320425557736</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6568661777.171032</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.003691821885397043</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>23</v>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1521177699.707057</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6103269520.802633</v>
+        <v>1232019913.069348</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002534939828126449</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.163866129626874</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05520066638114491</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>616010038.3837744</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5294055617.459287</v>
+        <v>4377143500.205862</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003438211366805052</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1162184818598783</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0268775252228831</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2188571870.017571</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5110902115.352235</v>
+        <v>1655555032.971601</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002862809870406692</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1815619566156462</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02678150880492688</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>827777533.3339217</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4934565670.5306</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1096110157093204</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0421921056381734</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" t="n">
-        <v>352</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7567941854.66135</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004324341810825411</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2467282766.01352</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3896103838.313091</v>
+        <v>3467883360.100035</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003766634436351053</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.2044478582447987</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02034910624894339</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1733941799.358617</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5682363812.4395</v>
+        <v>2398392717.686624</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005248956869199595</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1400939504939532</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02919963673568369</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1199196395.950152</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5479603895.062173</v>
+        <v>1881285050.065059</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003069145633928036</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1555669519274996</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04447112250404307</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>940642565.2190877</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8341595783.526985</v>
+        <v>4467446301.025605</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00372173943910636</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17</v>
+        <v>0.09447180694649429</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04684289124587404</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2233723191.941002</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4230267983.435149</v>
+        <v>3855836797.833801</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004005325192742441</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1625596954141046</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02512735260526866</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1927918424.530025</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6943311129.873099</v>
+        <v>5028294803.407543</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005216947528024751</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1367341584157239</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02869777131744865</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>26</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2514147358.838279</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5604334797.281132</v>
+        <v>4954087207.014729</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00405336438938778</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>15</v>
+        <v>0.1299823915182237</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03862447022183146</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2477043628.099526</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5216288800.028666</v>
+        <v>3060774316.990672</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00480112191109512</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.09457624190686263</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03801942246728131</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1530387171.550931</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8658697566.262152</v>
+        <v>4296304006.715718</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002387531357632036</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
+        <v>0.1223676211585893</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05019263770870357</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2148152017.009177</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6221958311.219314</v>
+        <v>2009054273.389853</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00104194041281871</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>17</v>
+        <v>0.1302418368005029</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05261272945231872</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1004527142.725365</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5656312744.090493</v>
+        <v>3393210743.375316</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003613271429376882</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.0999865663144887</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03928841332045446</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1696605374.142416</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3804698374.211886</v>
+        <v>4185515692.037551</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00377058735142618</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1118794902167019</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02739915529924987</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2092757890.828576</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6190299914.554064</v>
+        <v>1637143158.993671</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001996868866518795</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
+        <v>0.07252235831514853</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04626565809085922</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>818571584.2765336</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7560976421.187108</v>
+        <v>2216997796.285835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001167369953774018</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16</v>
+        <v>0.07209196900804134</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04610407655667453</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1108498965.683584</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5686241157.918766</v>
+        <v>2683299264.619648</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003278000387891082</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1630423919848805</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02848651479382612</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1341649724.98045</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5206123151.209448</v>
+        <v>2386535101.933499</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003975440228644243</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1072497519606444</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03474652726579315</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1193267478.799612</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5129094442.107073</v>
+        <v>4303411614.605508</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002536784056282983</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15</v>
+        <v>0.09397289310088613</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02525547093550119</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2151705804.659366</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6060955093.777458</v>
+        <v>1942291677.982456</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003713581698226826</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>26</v>
+        <v>0.1610663644159676</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02449831244992361</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>971145891.8683792</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6764279049.08689</v>
+        <v>4561333579.643148</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004087466163085276</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.10628436983279</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0552088602512479</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2280666715.227138</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8874536011.61668</v>
+        <v>1201415956.729613</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002636778588525865</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1649533015730145</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02511010549558269</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>600707960.2280067</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7728339810.194959</v>
+        <v>3531128761.180865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003496512283225752</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>25</v>
+        <v>0.07518899918261443</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02563746111882257</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1765564356.653317</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3512107886.649263</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1117606849816511</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02502281835042615</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7376228509.396986</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.003976603290311322</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1756053888.30888</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5645028009.318839</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1920229333147793</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01891778024682119</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6942822056.74774</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004699569166543647</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+      <c r="I82" t="n">
+        <v>26</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2822513952.496683</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9791557106.572477</v>
+        <v>2254133315.002022</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003026483773376522</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1134222702488016</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0411528241305859</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1127066674.374189</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6655232627.768948</v>
+        <v>2343645563.027553</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005331227871581434</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.1085680167603355</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03256143794684668</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1171822736.099535</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4512788590.019938</v>
+        <v>2860572830.470124</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002848061005262219</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1502286815722256</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05198567084686521</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1430286459.892862</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8797328277.653234</v>
+        <v>2281852723.284468</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002546638420418835</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>19</v>
+        <v>0.1695213682797273</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02162150264183099</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1140926428.362398</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3908883739.704336</v>
+        <v>1382414147.774875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001507827439388286</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1557710054192495</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02909756190840437</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>691207176.1621623</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7768639030.259709</v>
+        <v>2517619983.83927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004663537214781008</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1203609922357957</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03636032394905616</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1258809974.609405</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3431573996.705403</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1530735788703585</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03702264174614689</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5748802119.509447</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.003938471421542254</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1715787004.727102</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4635931370.072873</v>
+        <v>1774845963.286638</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002397455797297242</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.1302471982776705</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04893872986801853</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>887423010.568876</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4909405799.725615</v>
+        <v>1824661071.305978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004588436931212928</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>22</v>
+        <v>0.132295494114891</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05756904654502696</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>912330531.2008636</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3003160156.265798</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0696700119744173</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03444928302387884</v>
+      </c>
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3300279757.057113</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003181911513756726</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1501580099.989234</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5327368445.178816</v>
+        <v>3137680556.179027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001815843544668345</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1332338996381797</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03482548037624718</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1568840334.347604</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6291516034.79481</v>
+        <v>1823792208.666104</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009428487573067623</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>22</v>
+        <v>0.1059552272311161</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03076834648425611</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>911896079.6848499</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7115810666.598331</v>
+        <v>2950446704.143394</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002227472554903304</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>18</v>
+        <v>0.1326675778854345</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05272390476376879</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1475223355.318138</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7829319815.505424</v>
+        <v>1604488891.172004</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003040561459314453</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>19</v>
+        <v>0.09838944022401112</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03228776764244509</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>802244474.6871482</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5939053953.526072</v>
+        <v>3830936714.00035</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004413623459075831</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>19</v>
+        <v>0.1762901065322636</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02577170398532838</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1915468399.699587</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6967186714.744941</v>
+        <v>2619993137.907269</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00323316539992904</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>27</v>
+        <v>0.1053552785529911</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02570196611446893</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1309996527.786599</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3699809286.357725</v>
+        <v>2530364173.329652</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005821678318375881</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.136372357909149</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02431345335888181</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1265182038.466764</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5899571791.598188</v>
+        <v>3915978323.014953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002487693659638611</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1494685176121296</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01735691684145802</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1957989225.381815</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7921639578.640614</v>
+        <v>2247844157.733447</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001144760359852447</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>23</v>
+        <v>0.1506339506997853</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04303078272693657</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1123922068.421924</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_72.xlsx
+++ b/output/fit_clients/fit_round_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2309412186.384586</v>
+        <v>2269795416.186601</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1100948039992492</v>
+        <v>0.1084139639433463</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03146929338894034</v>
+        <v>0.03867661428647808</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1154706130.351875</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2112048140.313203</v>
+        <v>2442979960.172843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1580107308151617</v>
+        <v>0.1590641453328398</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04947955769083168</v>
+        <v>0.04490442661646583</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1056024127.470427</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3874021101.549048</v>
+        <v>3894517382.964468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1592377072661217</v>
+        <v>0.1352851035063211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02802683976585266</v>
+        <v>0.02556836719140596</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1937010555.931256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2767350211.554586</v>
+        <v>4117129061.304544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09691287341115319</v>
+        <v>0.1093782583259409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04806136053917867</v>
+        <v>0.03919822299740543</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1383675190.880468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2538008975.155501</v>
+        <v>2545683217.356445</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1299646853470592</v>
+        <v>0.1129817289961067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0506499280826443</v>
+        <v>0.03796039297604458</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1269004458.859362</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2639486593.386854</v>
+        <v>2161419087.858856</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08901252182352933</v>
+        <v>0.08401758616418104</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03273937292283452</v>
+        <v>0.03368407038752645</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1319743296.219735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2394196459.181746</v>
+        <v>3782186488.556036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1370274719873742</v>
+        <v>0.2208639587776945</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02119218922124507</v>
+        <v>0.03096874818501194</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1197098225.075281</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2229771030.170897</v>
+        <v>1914666031.792871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1854030481647309</v>
+        <v>0.1712938779565805</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02839598250375682</v>
+        <v>0.03039731969518986</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1114885509.709643</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5954964159.883698</v>
+        <v>4190030471.798262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1565726279567689</v>
+        <v>0.148708891638231</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03334416771349516</v>
+        <v>0.05303209390053421</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2977482253.093823</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4011490162.387137</v>
+        <v>3183737672.531267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1293538753013909</v>
+        <v>0.1845873054201504</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03816871434251348</v>
+        <v>0.04901414283611349</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2005745094.581741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2386288603.837934</v>
+        <v>2151670908.662869</v>
       </c>
       <c r="F12" t="n">
-        <v>0.194458809190754</v>
+        <v>0.1452752408466002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04328817738535674</v>
+        <v>0.03995516864461994</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1193144263.655398</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4207678643.015614</v>
+        <v>3943374645.617789</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09224714515397936</v>
+        <v>0.06512635555935918</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02680567914528503</v>
+        <v>0.02717334696740139</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>24</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2103839365.792626</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3103004473.325796</v>
+        <v>3584346656.777956</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1468684545265867</v>
+        <v>0.1417239254082512</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0363222842282155</v>
+        <v>0.03135020909069277</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1551502263.556775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1486805049.383354</v>
+        <v>1218654674.358603</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09321651172641984</v>
+        <v>0.08176775993746856</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03311281885867828</v>
+        <v>0.04802990760407812</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>743402607.1040523</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1851182027.844979</v>
+        <v>2394311598.252061</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08208281792565281</v>
+        <v>0.08074877894492363</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04182006048199995</v>
+        <v>0.03911612013300134</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>925591102.6052926</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5173105634.312494</v>
+        <v>3861898382.429595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1725598550984012</v>
+        <v>0.1404789039845948</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03317390308426041</v>
+        <v>0.04862348932055111</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2586552793.698503</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3274512634.727662</v>
+        <v>2697074783.958029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.157537661512915</v>
+        <v>0.1340819602364995</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02548397907194816</v>
+        <v>0.02842395757175334</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1637256327.694555</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1168423081.436491</v>
+        <v>1360806208.69072</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1619557574003748</v>
+        <v>0.1206415063480404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01806651251411365</v>
+        <v>0.02570956204447004</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>584211610.8597778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1787594832.680862</v>
+        <v>2072114071.476939</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1440059348476057</v>
+        <v>0.1282162521342875</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02616357895721872</v>
+        <v>0.02615072580111812</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>893797465.2105547</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2541706130.056434</v>
+        <v>2540025973.604868</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09172341040565357</v>
+        <v>0.08601454730007617</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03071500932019502</v>
+        <v>0.04124210822080489</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1270853049.088995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2927492804.284364</v>
+        <v>3933943939.820393</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09459661691400348</v>
+        <v>0.1298061598128444</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04149606666979132</v>
+        <v>0.05654471759461218</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1463746467.91554</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1461006204.613441</v>
+        <v>1043042329.40869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1507058269558548</v>
+        <v>0.1374803479191621</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04962300000353671</v>
+        <v>0.05273727861038003</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>730503094.7159969</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3766181624.982968</v>
+        <v>3405803188.280783</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1000904547473096</v>
+        <v>0.09330234819760948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03416514628114362</v>
+        <v>0.02502942572243586</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1883090796.1111</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1483820667.177955</v>
+        <v>999293340.5415866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1110672825025091</v>
+        <v>0.07437665338543802</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02555630403158811</v>
+        <v>0.02845269863497769</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>741910286.1511124</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1446362329.787932</v>
+        <v>1209158628.933448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.109877482099339</v>
+        <v>0.1235770132422611</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02864102848541945</v>
+        <v>0.03881683163876463</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>723181246.1574419</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3622985028.278543</v>
+        <v>3687109812.503611</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1580125393627078</v>
+        <v>0.1281963699427997</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0198078267252234</v>
+        <v>0.02707989899091275</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1811492542.921227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3615576348.732133</v>
+        <v>2434123209.328378</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1152808822952475</v>
+        <v>0.1097908003272794</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04502354218384931</v>
+        <v>0.03848363587164295</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1807788238.938477</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3941112709.083215</v>
+        <v>5909656737.025524</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1107527650886018</v>
+        <v>0.09320288473368166</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04316909194352132</v>
+        <v>0.043945269042691</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>32</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1970556375.368729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2287884390.010301</v>
+        <v>2152242109.515201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1284419479890404</v>
+        <v>0.1058151369102273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03498492130780027</v>
+        <v>0.02467196075823657</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1143942265.148684</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>952864801.4062785</v>
+        <v>1494932816.61416</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06753806641295344</v>
+        <v>0.1069564532645126</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04279442191984516</v>
+        <v>0.03714051533172975</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>476432410.216748</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1313781123.348205</v>
+        <v>1181306284.381585</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08775585664233322</v>
+        <v>0.1070044959846089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02563863392922435</v>
+        <v>0.02938608955383372</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>656890591.3363626</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2230724912.120266</v>
+        <v>2780153862.973649</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1950632742373702</v>
+        <v>0.1378984956503497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06059236882317421</v>
+        <v>0.05101184936204697</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>21</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1115362517.101048</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1092613926.754999</v>
+        <v>1297143516.741402</v>
       </c>
       <c r="F34" t="n">
-        <v>0.121114727965087</v>
+        <v>0.09880036841001892</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02272545469822847</v>
+        <v>0.02628780800226799</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>546306985.9344028</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1195213392.557253</v>
+        <v>1004182112.631442</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07711055155495394</v>
+        <v>0.09559996169277704</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04295394157674689</v>
+        <v>0.0309125596361267</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>597606671.9499739</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2969498446.878256</v>
+        <v>2237362610.853155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.180441893184811</v>
+        <v>0.1518501193994805</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02435913816627532</v>
+        <v>0.02189372820377471</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1484749207.700236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1973213277.921252</v>
+        <v>2506255449.375268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09205636655046996</v>
+        <v>0.09317706421009085</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02777822342208714</v>
+        <v>0.0311500286113513</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>986606662.4735585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2024666615.928917</v>
+        <v>1722851205.945822</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1138662745734902</v>
+        <v>0.1162072798220209</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04002508464387201</v>
+        <v>0.03701704487450058</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1012333283.014172</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1837965823.461462</v>
+        <v>2055018642.028461</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1356877803746662</v>
+        <v>0.1893700024359614</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03233382637947303</v>
+        <v>0.02641411407701012</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>918982930.7600169</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1115193055.287106</v>
+        <v>1617602439.98103</v>
       </c>
       <c r="F40" t="n">
-        <v>0.117451248249579</v>
+        <v>0.1221526683152752</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04701245182198239</v>
+        <v>0.05039764454581733</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>557596590.0865555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2691481960.71769</v>
+        <v>1925853708.420616</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1248742320965247</v>
+        <v>0.1569898198740505</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04114268062795871</v>
+        <v>0.03497926988411946</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1345740986.777076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2774123714.188426</v>
+        <v>3529063040.468093</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08342327265811172</v>
+        <v>0.1200042668930114</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03291985655550075</v>
+        <v>0.03955878946061956</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1387061801.879507</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2881258941.762797</v>
+        <v>1913141996.478587</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1993730609769783</v>
+        <v>0.1896121058143948</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01656735046347823</v>
+        <v>0.02402360238194742</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1440629481.100072</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2231021160.384801</v>
+        <v>2005565117.890141</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07162204391737791</v>
+        <v>0.08477748301167669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03606979989513405</v>
+        <v>0.02784385029208842</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1115510732.532995</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2065983828.47691</v>
+        <v>2203907819.331285</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1457581245979352</v>
+        <v>0.1862832149856545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04704612989317997</v>
+        <v>0.04292165000081884</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1032991911.682114</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3907001151.68792</v>
+        <v>4528701958.393556</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1599811689571249</v>
+        <v>0.1232551449849158</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04851482226251067</v>
+        <v>0.05708595449656099</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>26</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1953500539.992332</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4063465701.40716</v>
+        <v>5086639094.519699</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1818377984405566</v>
+        <v>0.1971422606541236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05725546490869771</v>
+        <v>0.05290789102955937</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2031732853.321691</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3453367134.707969</v>
+        <v>3255879690.478703</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07034987660357447</v>
+        <v>0.1047659917434867</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03608206074499538</v>
+        <v>0.02919843151941498</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>25</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1726683633.396187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1546184764.717438</v>
+        <v>1511332140.596587</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1535635008132652</v>
+        <v>0.1186982503447709</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03286408169995187</v>
+        <v>0.04337013871230242</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>773092407.1073164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2708797693.516895</v>
+        <v>2616815988.237883</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1313952471080745</v>
+        <v>0.1122934699267078</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05080904362795034</v>
+        <v>0.05088904909039904</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>24</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1354398927.234617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1125101899.806463</v>
+        <v>1410584947.692398</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213090264030232</v>
+        <v>0.1577852931579731</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0516546172162974</v>
+        <v>0.04665113494079347</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>562551013.4816474</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4670732957.565906</v>
+        <v>4120433076.700746</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1271733547277265</v>
+        <v>0.08389559773146979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04034095464029226</v>
+        <v>0.0606785983509863</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>30</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2335366495.689333</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2463197801.361685</v>
+        <v>3326069208.915131</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1777854964256464</v>
+        <v>0.1361652587649112</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02661132803963773</v>
+        <v>0.02942206112113048</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1231598970.112725</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3871368202.531665</v>
+        <v>3760190066.00153</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1623478218312052</v>
+        <v>0.1676198989830992</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04125586346663183</v>
+        <v>0.05275119960575013</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1935684155.139997</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3042355534.389067</v>
+        <v>4732949669.299441</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1599637998246378</v>
+        <v>0.1682776823545337</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02979320425557736</v>
+        <v>0.03024551679989084</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1521177699.707057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1232019913.069348</v>
+        <v>1184627186.063107</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163866129626874</v>
+        <v>0.1565140444164984</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05520066638114491</v>
+        <v>0.04665690637031716</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>616010038.3837744</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4377143500.205862</v>
+        <v>3781267315.525961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1162184818598783</v>
+        <v>0.1233745013901246</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0268775252228831</v>
+        <v>0.02560097052495207</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>23</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2188571870.017571</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1655555032.971601</v>
+        <v>1357176399.797119</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1815619566156462</v>
+        <v>0.1449914505707678</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02678150880492688</v>
+        <v>0.03430715924480932</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>827777533.3339217</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4934565670.5306</v>
+        <v>3913081923.639228</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1096110157093204</v>
+        <v>0.1157140111550912</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0421921056381734</v>
+        <v>0.03427117460153026</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2467282766.01352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3467883360.100035</v>
+        <v>3257812848.080389</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2044478582447987</v>
+        <v>0.180652479350853</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02034910624894339</v>
+        <v>0.02636226862232703</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1733941799.358617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2398392717.686624</v>
+        <v>3378565170.010597</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1400939504939532</v>
+        <v>0.1091194088220078</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02919963673568369</v>
+        <v>0.02173805736893477</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1199196395.950152</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1881285050.065059</v>
+        <v>1548630481.339022</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1555669519274996</v>
+        <v>0.1576094371157048</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04447112250404307</v>
+        <v>0.04438240081167023</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>940642565.2190877</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4467446301.025605</v>
+        <v>4393026126.841118</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09447180694649429</v>
+        <v>0.1074581108191212</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04684289124587404</v>
+        <v>0.04261314764199824</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2233723191.941002</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3855836797.833801</v>
+        <v>4194380470.013029</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1625596954141046</v>
+        <v>0.1727771039287051</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512735260526866</v>
+        <v>0.02312401073027058</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1927918424.530025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5028294803.407543</v>
+        <v>5023083597.478823</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1367341584157239</v>
+        <v>0.1408680981691974</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02869777131744865</v>
+        <v>0.0292128420783219</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>26</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2514147358.838279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4954087207.014729</v>
+        <v>4461291479.682711</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1299823915182237</v>
+        <v>0.1538975722141577</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03862447022183146</v>
+        <v>0.04280496774600247</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>21</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2477043628.099526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3060774316.990672</v>
+        <v>2758549061.657269</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09457624190686263</v>
+        <v>0.07817880062000841</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03801942246728131</v>
+        <v>0.04522552316173718</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>24</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1530387171.550931</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4296304006.715718</v>
+        <v>4412240287.705017</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1223676211585893</v>
+        <v>0.1013375978139874</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05019263770870357</v>
+        <v>0.03614553837435382</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2148152017.009177</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2009054273.389853</v>
+        <v>2483300294.768097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1302418368005029</v>
+        <v>0.1779823710091009</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05261272945231872</v>
+        <v>0.05293113068261103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1004527142.725365</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3393210743.375316</v>
+        <v>3453019801.883453</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0999865663144887</v>
+        <v>0.09136099865820078</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03928841332045446</v>
+        <v>0.03291130834632488</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>20</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1696605374.142416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4185515692.037551</v>
+        <v>4540481675.970856</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1118794902167019</v>
+        <v>0.1654421662389073</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02739915529924987</v>
+        <v>0.03047815157126717</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2092757890.828576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1637143158.993671</v>
+        <v>1633687429.256328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07252235831514853</v>
+        <v>0.100584446235423</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04626565809085922</v>
+        <v>0.03866651746234559</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>818571584.2765336</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2216997796.285835</v>
+        <v>2911104347.741998</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07209196900804134</v>
+        <v>0.07472470323313526</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04610407655667453</v>
+        <v>0.04368786841884263</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1108498965.683584</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2683299264.619648</v>
+        <v>3606565197.642118</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1630423919848805</v>
+        <v>0.1772996938647901</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02848651479382612</v>
+        <v>0.02146226479694336</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1341649724.98045</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2386535101.933499</v>
+        <v>1658416552.615773</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1072497519606444</v>
+        <v>0.1133116892753348</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03474652726579315</v>
+        <v>0.03523543636727862</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1193267478.799612</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4303411614.605508</v>
+        <v>3532468217.944242</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09397289310088613</v>
+        <v>0.1240462180360077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02525547093550119</v>
+        <v>0.02310506257477777</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2151705804.659366</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1942291677.982456</v>
+        <v>1812090470.298408</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1610663644159676</v>
+        <v>0.1617611543954907</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02449831244992361</v>
+        <v>0.03089188922794074</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>971145891.8683792</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4561333579.643148</v>
+        <v>3897450289.912852</v>
       </c>
       <c r="F78" t="n">
-        <v>0.10628436983279</v>
+        <v>0.1326005843705828</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0552088602512479</v>
+        <v>0.04352521370530577</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2280666715.227138</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1201415956.729613</v>
+        <v>1787178794.346585</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1649533015730145</v>
+        <v>0.1111146812663698</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02511010549558269</v>
+        <v>0.03250572556683591</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>600707960.2280067</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3531128761.180865</v>
+        <v>4285850238.699465</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07518899918261443</v>
+        <v>0.108790952369809</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02563746111882257</v>
+        <v>0.0338337501295406</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1765564356.653317</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3512107886.649263</v>
+        <v>4831920742.625645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117606849816511</v>
+        <v>0.1341426559051417</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02502281835042615</v>
+        <v>0.02747817620888502</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1756053888.30888</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5645028009.318839</v>
+        <v>3683141382.635711</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1920229333147793</v>
+        <v>0.2068363462569244</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01891778024682119</v>
+        <v>0.01904225876923693</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>26</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2822513952.496683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2254133315.002022</v>
+        <v>1726580723.525772</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1134222702488016</v>
+        <v>0.1396588229622157</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0411528241305859</v>
+        <v>0.02910560087262007</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1127066674.374189</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2343645563.027553</v>
+        <v>2089881653.777861</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1085680167603355</v>
+        <v>0.1156507545880945</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03256143794684668</v>
+        <v>0.03904183339220473</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1171822736.099535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2860572830.470124</v>
+        <v>3672514111.878301</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1502286815722256</v>
+        <v>0.1843225362669082</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05198567084686521</v>
+        <v>0.04894181473759865</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>27</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1430286459.892862</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2281852723.284468</v>
+        <v>2201303072.886122</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1695213682797273</v>
+        <v>0.1534537400840159</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02162150264183099</v>
+        <v>0.02072011225788825</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1140926428.362398</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1382414147.774875</v>
+        <v>1429524635.914551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1557710054192495</v>
+        <v>0.1617983377010037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02909756190840437</v>
+        <v>0.04012646298953067</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>691207176.1621623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2517619983.83927</v>
+        <v>2567581607.029442</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1203609922357957</v>
+        <v>0.1121996498686862</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03636032394905616</v>
+        <v>0.03282203830496451</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1258809974.609405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3431573996.705403</v>
+        <v>3323368673.293415</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1530735788703585</v>
+        <v>0.1318164956950688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03702264174614689</v>
+        <v>0.03070822021467837</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>24</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1715787004.727102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1774845963.286638</v>
+        <v>1549077980.523261</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1302471982776705</v>
+        <v>0.1321593367928542</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04893872986801853</v>
+        <v>0.04051800721645091</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>887423010.568876</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1824661071.305978</v>
+        <v>1754150760.230692</v>
       </c>
       <c r="F91" t="n">
-        <v>0.132295494114891</v>
+        <v>0.139896343997064</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05756904654502696</v>
+        <v>0.05005592606412772</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>912330531.2008636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3003160156.265798</v>
+        <v>2129781019.229079</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0696700119744173</v>
+        <v>0.09495209572618488</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03444928302387884</v>
+        <v>0.03478634320000489</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1501580099.989234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3137680556.179027</v>
+        <v>4837165456.956881</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1332338996381797</v>
+        <v>0.09384650226673773</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03482548037624718</v>
+        <v>0.04880536041912133</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1568840334.347604</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1823792208.666104</v>
+        <v>2370358289.512004</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1059552272311161</v>
+        <v>0.1074743419088033</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03076834648425611</v>
+        <v>0.04185292748601583</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>911896079.6848499</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2950446704.143394</v>
+        <v>3081998790.798231</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1326675778854345</v>
+        <v>0.09712358933497792</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05272390476376879</v>
+        <v>0.04980709241370599</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1475223355.318138</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1604488891.172004</v>
+        <v>2388177272.379618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09838944022401112</v>
+        <v>0.09586066174712775</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03228776764244509</v>
+        <v>0.0377251472016211</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>802244474.6871482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3830936714.00035</v>
+        <v>4359014706.76588</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1762901065322636</v>
+        <v>0.1603337975402214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02577170398532838</v>
+        <v>0.01801382702266891</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1915468399.699587</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2619993137.907269</v>
+        <v>2654273724.355103</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1053552785529911</v>
+        <v>0.1142157107675213</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02570196611446893</v>
+        <v>0.02805154119531838</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1309996527.786599</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2530364173.329652</v>
+        <v>3051245590.429956</v>
       </c>
       <c r="F99" t="n">
-        <v>0.136372357909149</v>
+        <v>0.1324729619819966</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02431345335888181</v>
+        <v>0.03410080358776917</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1265182038.466764</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3915978323.014953</v>
+        <v>3802380731.130348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494685176121296</v>
+        <v>0.1619059124876487</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01735691684145802</v>
+        <v>0.02073649467270175</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>22</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1957989225.381815</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2247844157.733447</v>
+        <v>2204590268.268986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1506339506997853</v>
+        <v>0.2125292079802468</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04303078272693657</v>
+        <v>0.03815456924178755</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>31</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1123922068.421924</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_72.xlsx
+++ b/output/fit_clients/fit_round_72.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2269795416.186601</v>
+        <v>1669994800.77996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1084139639433463</v>
+        <v>0.09622410286655171</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03867661428647808</v>
+        <v>0.03114703653686077</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2442979960.172843</v>
+        <v>2279143887.169563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1590641453328398</v>
+        <v>0.1774747589544184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04490442661646583</v>
+        <v>0.03120885631359113</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3894517382.964468</v>
+        <v>3466986680.094604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1352851035063211</v>
+        <v>0.1090970437663913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02556836719140596</v>
+        <v>0.03439925170459163</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4117129061.304544</v>
+        <v>2632249351.119471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093782583259409</v>
+        <v>0.1100682361236753</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03919822299740543</v>
+        <v>0.0417775595109162</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2545683217.356445</v>
+        <v>1828924641.312972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1129817289961067</v>
+        <v>0.09651074635843467</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03796039297604458</v>
+        <v>0.05582495463591573</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2161419087.858856</v>
+        <v>3086650491.395936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08401758616418104</v>
+        <v>0.1004841786260142</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03368407038752645</v>
+        <v>0.03027541570526345</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3782186488.556036</v>
+        <v>3054176140.761051</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2208639587776945</v>
+        <v>0.1881704643119534</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03096874818501194</v>
+        <v>0.02039569287200227</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1914666031.792871</v>
+        <v>2239433655.706429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1712938779565805</v>
+        <v>0.1980580819229855</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03039731969518986</v>
+        <v>0.02714523676700853</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4190030471.798262</v>
+        <v>5634704969.99682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148708891638231</v>
+        <v>0.1513436039877188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05303209390053421</v>
+        <v>0.03948148484236196</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3183737672.531267</v>
+        <v>4026327213.765252</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1845873054201504</v>
+        <v>0.137942438964443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04901414283611349</v>
+        <v>0.03683654487484794</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2151670908.662869</v>
+        <v>2690214633.181646</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452752408466002</v>
+        <v>0.162652593131477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03995516864461994</v>
+        <v>0.04938402318519113</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3943374645.617789</v>
+        <v>4573602382.209653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06512635555935918</v>
+        <v>0.07683413060840708</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02717334696740139</v>
+        <v>0.02953979198633755</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3584346656.777956</v>
+        <v>2523938691.383255</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1417239254082512</v>
+        <v>0.1234068960316409</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03135020909069277</v>
+        <v>0.03903118342491078</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1218654674.358603</v>
+        <v>1131390287.703016</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08176775993746856</v>
+        <v>0.06722127997816145</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04802990760407812</v>
+        <v>0.03202713860836828</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2394311598.252061</v>
+        <v>1803257895.207876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08074877894492363</v>
+        <v>0.07891827970197775</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03911612013300134</v>
+        <v>0.04144298708251751</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3861898382.429595</v>
+        <v>3986594825.275038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1404789039845948</v>
+        <v>0.1259613523006852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04862348932055111</v>
+        <v>0.04865186623340592</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2697074783.958029</v>
+        <v>3948664339.98698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1340819602364995</v>
+        <v>0.1515156552449377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02842395757175334</v>
+        <v>0.02480340509046659</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1360806208.69072</v>
+        <v>1100853762.634896</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1206415063480404</v>
+        <v>0.1220885002847996</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02570956204447004</v>
+        <v>0.02380797542995344</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2072114071.476939</v>
+        <v>2194040779.788516</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1282162521342875</v>
+        <v>0.1100180163412414</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02615072580111812</v>
+        <v>0.02180069210451215</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2540025973.604868</v>
+        <v>1980094553.086028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08601454730007617</v>
+        <v>0.07412766305700254</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04124210822080489</v>
+        <v>0.04181104467496818</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3933943939.820393</v>
+        <v>2700089816.715347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1298061598128444</v>
+        <v>0.09405878157174656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05654471759461218</v>
+        <v>0.05390443815962802</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1043042329.40869</v>
+        <v>1117951228.16794</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1374803479191621</v>
+        <v>0.1383084501590402</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05273727861038003</v>
+        <v>0.04022633951777572</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3405803188.280783</v>
+        <v>4062946630.82994</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09330234819760948</v>
+        <v>0.1089903890164614</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02502942572243586</v>
+        <v>0.0284308407668303</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999293340.5415866</v>
+        <v>1367132411.744375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07437665338543802</v>
+        <v>0.09904165804896244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02845269863497769</v>
+        <v>0.01985131768284796</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1209158628.933448</v>
+        <v>1090124368.236356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1235770132422611</v>
+        <v>0.08271736481766823</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03881683163876463</v>
+        <v>0.02906261015079378</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687109812.503611</v>
+        <v>4278034411.33757</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1281963699427997</v>
+        <v>0.09640028823466566</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02707989899091275</v>
+        <v>0.02243427473319303</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2434123209.328378</v>
+        <v>3514908308.631693</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1097908003272794</v>
+        <v>0.1006569094359623</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03848363587164295</v>
+        <v>0.03087632865767564</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5909656737.025524</v>
+        <v>4037403894.267058</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09320288473368166</v>
+        <v>0.1053346180844401</v>
       </c>
       <c r="G29" t="n">
-        <v>0.043945269042691</v>
+        <v>0.04071047494132397</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2152242109.515201</v>
+        <v>2000107666.264727</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058151369102273</v>
+        <v>0.1251781952240477</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02467196075823657</v>
+        <v>0.03506360790435261</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1494932816.61416</v>
+        <v>1107638729.959889</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069564532645126</v>
+        <v>0.1044371151957615</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03714051533172975</v>
+        <v>0.04114298816130001</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1181306284.381585</v>
+        <v>1497368964.019227</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1070044959846089</v>
+        <v>0.1205316685131209</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02938608955383372</v>
+        <v>0.02418643332252259</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2780153862.973649</v>
+        <v>1991482031.667413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1378984956503497</v>
+        <v>0.199685498794681</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05101184936204697</v>
+        <v>0.05627617227270366</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1297143516.741402</v>
+        <v>1183962992.290523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09880036841001892</v>
+        <v>0.1221593559744587</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02628780800226799</v>
+        <v>0.02471481812708621</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1004182112.631442</v>
+        <v>985584989.6357448</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09559996169277704</v>
+        <v>0.08378682936231625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0309125596361267</v>
+        <v>0.04334880268507754</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2237362610.853155</v>
+        <v>2721869068.401172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1518501193994805</v>
+        <v>0.1754265793000178</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02189372820377471</v>
+        <v>0.01838615246191421</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2506255449.375268</v>
+        <v>2045507964.094901</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09317706421009085</v>
+        <v>0.07575219193289871</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0311500286113513</v>
+        <v>0.02927695956071085</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1722851205.945822</v>
+        <v>1697615894.862383</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1162072798220209</v>
+        <v>0.09087150391228398</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03701704487450058</v>
+        <v>0.0349055089980549</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2055018642.028461</v>
+        <v>1467216058.967714</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1893700024359614</v>
+        <v>0.1590234544089602</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02641411407701012</v>
+        <v>0.02678158498841612</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1617602439.98103</v>
+        <v>1677200853.499463</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1221526683152752</v>
+        <v>0.1593104552962391</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05039764454581733</v>
+        <v>0.05416168658478145</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1925853708.420616</v>
+        <v>2763499771.739884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1569898198740505</v>
+        <v>0.1482312035130591</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03497926988411946</v>
+        <v>0.03825449866219922</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3529063040.468093</v>
+        <v>3536149641.644209</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1200042668930114</v>
+        <v>0.117716047420417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03955878946061956</v>
+        <v>0.03715353789414483</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1913141996.478587</v>
+        <v>2890506979.741158</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1896121058143948</v>
+        <v>0.1526612376675141</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02402360238194742</v>
+        <v>0.0158273433083861</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2005565117.890141</v>
+        <v>2236786016.898659</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08477748301167669</v>
+        <v>0.07849554126307207</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02784385029208842</v>
+        <v>0.02657610193446188</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2203907819.331285</v>
+        <v>2306074264.00504</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1862832149856545</v>
+        <v>0.1732623065762053</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04292165000081884</v>
+        <v>0.04003167575386054</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4528701958.393556</v>
+        <v>4118545969.98077</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1232551449849158</v>
+        <v>0.1445157752019471</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05708595449656099</v>
+        <v>0.05284657748372564</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5086639094.519699</v>
+        <v>3602600105.540497</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1971422606541236</v>
+        <v>0.1552724083118695</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05290789102955937</v>
+        <v>0.04111013337471493</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3255879690.478703</v>
+        <v>3209327495.264559</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1047659917434867</v>
+        <v>0.09740393148032173</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02919843151941498</v>
+        <v>0.03881107380139059</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1511332140.596587</v>
+        <v>1219733643.229196</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1186982503447709</v>
+        <v>0.1772943894584605</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04337013871230242</v>
+        <v>0.03139300690408117</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2616815988.237883</v>
+        <v>4149163383.897234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1122934699267078</v>
+        <v>0.1479373070461018</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05088904909039904</v>
+        <v>0.04273392018882775</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1410584947.692398</v>
+        <v>1007240667.510811</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1577852931579731</v>
+        <v>0.1392185876670357</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04665113494079347</v>
+        <v>0.0358173682230138</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4120433076.700746</v>
+        <v>3775608013.985343</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08389559773146979</v>
+        <v>0.1166650414460658</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0606785983509863</v>
+        <v>0.04991887636500662</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3326069208.915131</v>
+        <v>3787120509.328034</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1361652587649112</v>
+        <v>0.1718837225299131</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02942206112113048</v>
+        <v>0.02861530874424591</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3760190066.00153</v>
+        <v>4961674581.231524</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1676198989830992</v>
+        <v>0.1601676915899237</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05275119960575013</v>
+        <v>0.04333243290773916</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4732949669.299441</v>
+        <v>3981305046.782465</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1682776823545337</v>
+        <v>0.1798410140214346</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03024551679989084</v>
+        <v>0.02485979112341998</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1184627186.063107</v>
+        <v>1156505777.588294</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1565140444164984</v>
+        <v>0.1576784281811718</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04665690637031716</v>
+        <v>0.05181177631959717</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3781267315.525961</v>
+        <v>3044857538.103427</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1233745013901246</v>
+        <v>0.1431257998484915</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02560097052495207</v>
+        <v>0.01669370667618589</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1357176399.797119</v>
+        <v>1462436577.706074</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1449914505707678</v>
+        <v>0.1912162343120304</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03430715924480932</v>
+        <v>0.03957620055949989</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3913081923.639228</v>
+        <v>3379288329.069108</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1157140111550912</v>
+        <v>0.1241422875760444</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03427117460153026</v>
+        <v>0.04881144364281775</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3257812848.080389</v>
+        <v>3773514549.467992</v>
       </c>
       <c r="F60" t="n">
-        <v>0.180652479350853</v>
+        <v>0.1985466250336407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02636226862232703</v>
+        <v>0.02048172627383815</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3378565170.010597</v>
+        <v>2471186924.157894</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1091194088220078</v>
+        <v>0.1652446181347815</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02173805736893477</v>
+        <v>0.02199390495787694</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1548630481.339022</v>
+        <v>1571673304.045145</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576094371157048</v>
+        <v>0.1203694089430944</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04438240081167023</v>
+        <v>0.04744933490210077</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4393026126.841118</v>
+        <v>3441832125.60079</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1074581108191212</v>
+        <v>0.09889515449950177</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04261314764199824</v>
+        <v>0.04111821180576751</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4194380470.013029</v>
+        <v>3877786255.3844</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1727771039287051</v>
+        <v>0.1576662943803983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02312401073027058</v>
+        <v>0.02984101833875532</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5023083597.478823</v>
+        <v>5529429565.06848</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1408680981691974</v>
+        <v>0.1258585731779546</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0292128420783219</v>
+        <v>0.03194520161021008</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4461291479.682711</v>
+        <v>5219337817.452328</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1538975722141577</v>
+        <v>0.1035226015410108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04280496774600247</v>
+        <v>0.0499186037519496</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2758549061.657269</v>
+        <v>2475219948.819168</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07817880062000841</v>
+        <v>0.07882141575106566</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04522552316173718</v>
+        <v>0.0319231827285525</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4412240287.705017</v>
+        <v>5379942542.686412</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1013375978139874</v>
+        <v>0.1431573433256085</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03614553837435382</v>
+        <v>0.03500441370178949</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2483300294.768097</v>
+        <v>1760763840.799633</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779823710091009</v>
+        <v>0.1243550347768303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05293113068261103</v>
+        <v>0.0372236188625762</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3453019801.883453</v>
+        <v>3325306519.425419</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09136099865820078</v>
+        <v>0.09081721239045469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03291130834632488</v>
+        <v>0.03652333408340341</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4540481675.970856</v>
+        <v>4215225307.731083</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1654421662389073</v>
+        <v>0.1460370813146732</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03047815157126717</v>
+        <v>0.02494230982186089</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1633687429.256328</v>
+        <v>1761285215.978232</v>
       </c>
       <c r="F72" t="n">
-        <v>0.100584446235423</v>
+        <v>0.0760437675405652</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03866651746234559</v>
+        <v>0.03656605148787065</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2911104347.741998</v>
+        <v>2769970355.668139</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07472470323313526</v>
+        <v>0.1112682437276911</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04368786841884263</v>
+        <v>0.05239125814892075</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3606565197.642118</v>
+        <v>3082295208.120671</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1772996938647901</v>
+        <v>0.1389120087374714</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02146226479694336</v>
+        <v>0.02912203590685045</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1658416552.615773</v>
+        <v>2002388247.627243</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1133116892753348</v>
+        <v>0.1103124031124323</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03523543636727862</v>
+        <v>0.03028186533393202</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3532468217.944242</v>
+        <v>3367813660.800717</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1240462180360077</v>
+        <v>0.1166175783387855</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02310506257477777</v>
+        <v>0.03134350896241143</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812090470.298408</v>
+        <v>1705021440.900626</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617611543954907</v>
+        <v>0.1155411365756296</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03089188922794074</v>
+        <v>0.02344056963845318</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3897450289.912852</v>
+        <v>4703908881.17442</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1326005843705828</v>
+        <v>0.1233890179249533</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04352521370530577</v>
+        <v>0.04818158915303952</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1787178794.346585</v>
+        <v>1498984549.991509</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1111146812663698</v>
+        <v>0.1586927940899572</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03250572556683591</v>
+        <v>0.02799785752984082</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4285850238.699465</v>
+        <v>5414221456.948685</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108790952369809</v>
+        <v>0.07553477384118895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0338337501295406</v>
+        <v>0.03140554267219323</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4831920742.625645</v>
+        <v>4189665395.786833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341426559051417</v>
+        <v>0.08932131493106985</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02747817620888502</v>
+        <v>0.02861441763913926</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3683141382.635711</v>
+        <v>5050941954.106752</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2068363462569244</v>
+        <v>0.1866448908019832</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01904225876923693</v>
+        <v>0.02854717676136754</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1726580723.525772</v>
+        <v>2176258471.245264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1396588229622157</v>
+        <v>0.1350171219973814</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02910560087262007</v>
+        <v>0.04448744941850113</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2089881653.777861</v>
+        <v>2113795892.833253</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156507545880945</v>
+        <v>0.09617306005501172</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03904183339220473</v>
+        <v>0.03305934726109904</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3672514111.878301</v>
+        <v>2458924636.870562</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1843225362669082</v>
+        <v>0.1839280792958208</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04894181473759865</v>
+        <v>0.04939623275983705</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2201303072.886122</v>
+        <v>2176409690.9733</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1534537400840159</v>
+        <v>0.1349930038762209</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02072011225788825</v>
+        <v>0.01783099551589689</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1429524635.914551</v>
+        <v>1509052860.297284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1617983377010037</v>
+        <v>0.1374735374797232</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04012646298953067</v>
+        <v>0.02749588354828467</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2567581607.029442</v>
+        <v>2380280191.587493</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1121996498686862</v>
+        <v>0.1312673318748118</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03282203830496451</v>
+        <v>0.02528304001069635</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323368673.293415</v>
+        <v>3400666072.002196</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1318164956950688</v>
+        <v>0.1038285748591841</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03070822021467837</v>
+        <v>0.02672999226500296</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1549077980.523261</v>
+        <v>1636698105.349367</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1321593367928542</v>
+        <v>0.1082365969457253</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04051800721645091</v>
+        <v>0.05288206325708126</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1754150760.230692</v>
+        <v>1653138061.718671</v>
       </c>
       <c r="F91" t="n">
-        <v>0.139896343997064</v>
+        <v>0.1519274252050145</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05005592606412772</v>
+        <v>0.05084293682647884</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2129781019.229079</v>
+        <v>2804530585.458965</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09495209572618488</v>
+        <v>0.06796599804210354</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03478634320000489</v>
+        <v>0.03329748072753706</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4837165456.956881</v>
+        <v>4109909982.55977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09384650226673773</v>
+        <v>0.120844667433023</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04880536041912133</v>
+        <v>0.04976767242223936</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2370358289.512004</v>
+        <v>2411379547.57505</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1074743419088033</v>
+        <v>0.1081396055424684</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04185292748601583</v>
+        <v>0.04133493559873291</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3081998790.798231</v>
+        <v>2866277845.077942</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09712358933497792</v>
+        <v>0.09946432312762771</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04980709241370599</v>
+        <v>0.04696249100544536</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2388177272.379618</v>
+        <v>1544501745.077872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09586066174712775</v>
+        <v>0.1353192941515317</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0377251472016211</v>
+        <v>0.04413592726063587</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4359014706.76588</v>
+        <v>4000337948.622139</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1603337975402214</v>
+        <v>0.1304939654044911</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01801382702266891</v>
+        <v>0.0209162290270407</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2654273724.355103</v>
+        <v>2937225259.34831</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1142157107675213</v>
+        <v>0.1268685544708214</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02805154119531838</v>
+        <v>0.03042814292293971</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3051245590.429956</v>
+        <v>2672211011.391778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1324729619819966</v>
+        <v>0.1350886243283589</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03410080358776917</v>
+        <v>0.0247813011074522</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3802380731.130348</v>
+        <v>3558457148.705545</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1619059124876487</v>
+        <v>0.1437798503097147</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02073649467270175</v>
+        <v>0.02649973471912125</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2204590268.268986</v>
+        <v>3265454029.645118</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2125292079802468</v>
+        <v>0.1614778475766023</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03815456924178755</v>
+        <v>0.04074077274087748</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_72.xlsx
+++ b/output/fit_clients/fit_round_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1669994800.77996</v>
+        <v>2434440361.514143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09622410286655171</v>
+        <v>0.1106364352663772</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03114703653686077</v>
+        <v>0.0411957216949705</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2279143887.169563</v>
+        <v>2326401998.486768</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1774747589544184</v>
+        <v>0.113991495768434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03120885631359113</v>
+        <v>0.04204891655903661</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3466986680.094604</v>
+        <v>3232518601.497078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1090970437663913</v>
+        <v>0.1089615467810358</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03439925170459163</v>
+        <v>0.03699695364188703</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+      <c r="K4" t="n">
+        <v>125.9173017584408</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2632249351.119471</v>
+        <v>3644585063.339222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100682361236753</v>
+        <v>0.09845096057561756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0417775595109162</v>
+        <v>0.04746325169710702</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>72</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1828924641.312972</v>
+        <v>2198691122.171452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09651074635843467</v>
+        <v>0.1240493190866231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05582495463591573</v>
+        <v>0.04175215825686486</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3086650491.395936</v>
+        <v>2373160442.9282</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1004841786260142</v>
+        <v>0.08674098469509024</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03027541570526345</v>
+        <v>0.04616420961856721</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3054176140.761051</v>
+        <v>2815905158.108503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1881704643119534</v>
+        <v>0.1942441867534564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02039569287200227</v>
+        <v>0.03161516401429305</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2239433655.706429</v>
+        <v>1901496980.344697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1980580819229855</v>
+        <v>0.1225285720576128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02714523676700853</v>
+        <v>0.02693850789889856</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5634704969.99682</v>
+        <v>4748177356.984294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1513436039877188</v>
+        <v>0.165171992594678</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03948148484236196</v>
+        <v>0.04507832105767116</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4026327213.765252</v>
+        <v>3299944824.620997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.137942438964443</v>
+        <v>0.1350048203362696</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03683654487484794</v>
+        <v>0.04924842740784167</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>144.2648504099599</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2690214633.181646</v>
+        <v>2840015054.508599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.162652593131477</v>
+        <v>0.1814509720940005</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04938402318519113</v>
+        <v>0.04650490286289969</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4573602382.209653</v>
+        <v>4391224348.60843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07683413060840708</v>
+        <v>0.06197730960463822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02953979198633755</v>
+        <v>0.01985262612995916</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37</v>
+      </c>
+      <c r="J13" t="n">
+        <v>71</v>
+      </c>
+      <c r="K13" t="n">
+        <v>180.6504302913622</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2523938691.383255</v>
+        <v>3023728742.326004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1234068960316409</v>
+        <v>0.1541421603086875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03903118342491078</v>
+        <v>0.02879356765969006</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>71</v>
+      </c>
+      <c r="K14" t="n">
+        <v>105.6746114815234</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131390287.703016</v>
+        <v>1581629802.167072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06722127997816145</v>
+        <v>0.1035513122824466</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03202713860836828</v>
+        <v>0.0368337254469713</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1803257895.207876</v>
+        <v>2867921446.482774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07891827970197775</v>
+        <v>0.09188879457752495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04144298708251751</v>
+        <v>0.03776404939589881</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3986594825.275038</v>
+        <v>4987555540.713363</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1259613523006852</v>
+        <v>0.1253280059804693</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04865186623340592</v>
+        <v>0.04913105820428861</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>72</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3948664339.98698</v>
+        <v>3626979291.742941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1515156552449377</v>
+        <v>0.1759761336542822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02480340509046659</v>
+        <v>0.02885807699081082</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100853762.634896</v>
+        <v>1014485270.299111</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1220885002847996</v>
+        <v>0.1626542537699749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02380797542995344</v>
+        <v>0.02658244292692388</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2194040779.788516</v>
+        <v>1878232915.464489</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1100180163412414</v>
+        <v>0.1443751192875005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02180069210451215</v>
+        <v>0.02864058948615964</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1980094553.086028</v>
+        <v>1953608791.732672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07412766305700254</v>
+        <v>0.09857999133823735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04181104467496818</v>
+        <v>0.04328225552489353</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2700089816.715347</v>
+        <v>3768447172.155367</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09405878157174656</v>
+        <v>0.1417808314059592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05390443815962802</v>
+        <v>0.03496503043628813</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>72</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1117951228.16794</v>
+        <v>992232791.4543188</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1383084501590402</v>
+        <v>0.1347580731272657</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04022633951777572</v>
+        <v>0.04336382423730812</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4062946630.82994</v>
+        <v>4069429613.930647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1089903890164614</v>
+        <v>0.09806125454801733</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0284308407668303</v>
+        <v>0.03105202558154154</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>72</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1367132411.744375</v>
+        <v>1469469894.480696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09904165804896244</v>
+        <v>0.09624803111186922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01985131768284796</v>
+        <v>0.02684578393772058</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1090124368.236356</v>
+        <v>1099672614.259985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08271736481766823</v>
+        <v>0.1162513397937798</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02906261015079378</v>
+        <v>0.03209494658081137</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4278034411.33757</v>
+        <v>3136512306.815957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09640028823466566</v>
+        <v>0.1310875431741896</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02243427473319303</v>
+        <v>0.0222959429896167</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>71</v>
+      </c>
+      <c r="K27" t="n">
+        <v>98.0820707956061</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3514908308.631693</v>
+        <v>3363115452.65641</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1006569094359623</v>
+        <v>0.1463098468717024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03087632865767564</v>
+        <v>0.03425085261723983</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4037403894.267058</v>
+        <v>3673652968.097497</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1053346180844401</v>
+        <v>0.09823708946315268</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04071047494132397</v>
+        <v>0.03428348218092163</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>66</v>
+      </c>
+      <c r="J29" t="n">
+        <v>72</v>
+      </c>
+      <c r="K29" t="n">
+        <v>187.6040026818347</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2000107666.264727</v>
+        <v>2092712162.45815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1251781952240477</v>
+        <v>0.1369851077407471</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03506360790435261</v>
+        <v>0.03873153325477147</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1107638729.959889</v>
+        <v>1334018524.278894</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1044371151957615</v>
+        <v>0.1045942070570487</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04114298816130001</v>
+        <v>0.03338178118683829</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1497368964.019227</v>
+        <v>1147603051.214168</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1205316685131209</v>
+        <v>0.09127791574939249</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02418643332252259</v>
+        <v>0.02920513470109493</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991482031.667413</v>
+        <v>2087318751.555421</v>
       </c>
       <c r="F33" t="n">
-        <v>0.199685498794681</v>
+        <v>0.189738060224681</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05627617227270366</v>
+        <v>0.04275130852957498</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1183962992.290523</v>
+        <v>1269770922.942467</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1221593559744587</v>
+        <v>0.1143409314429262</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02471481812708621</v>
+        <v>0.02257864888473429</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>985584989.6357448</v>
+        <v>851664325.4665257</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08378682936231625</v>
+        <v>0.08713161777737644</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04334880268507754</v>
+        <v>0.03500918642576852</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2721869068.401172</v>
+        <v>2299781864.71679</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1754265793000178</v>
+        <v>0.1345530807467106</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01838615246191421</v>
+        <v>0.01818312105503207</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2045507964.094901</v>
+        <v>2467900522.567111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07575219193289871</v>
+        <v>0.1036193415667211</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02927695956071085</v>
+        <v>0.0422925058430574</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1697615894.862383</v>
+        <v>2141273547.425254</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09087150391228398</v>
+        <v>0.08369510173112554</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0349055089980549</v>
+        <v>0.03227373264467838</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1467216058.967714</v>
+        <v>2064172249.50632</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1590234544089602</v>
+        <v>0.1734805159114209</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02678158498841612</v>
+        <v>0.02886912410906356</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1677200853.499463</v>
+        <v>1336903574.935842</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1593104552962391</v>
+        <v>0.1155190125386172</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05416168658478145</v>
+        <v>0.05967315800055858</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2763499771.739884</v>
+        <v>2736778957.557806</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1482312035130591</v>
+        <v>0.1081831751364318</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03825449866219922</v>
+        <v>0.04333853412298549</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3536149641.644209</v>
+        <v>4208694167.184875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.117716047420417</v>
+        <v>0.1159678819435043</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03715353789414483</v>
+        <v>0.04611537462446427</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>72</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2890506979.741158</v>
+        <v>2959179450.73005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1526612376675141</v>
+        <v>0.1996583803760679</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158273433083861</v>
+        <v>0.02077911732864811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2236786016.898659</v>
+        <v>1894533819.246732</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07849554126307207</v>
+        <v>0.09570753787917911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657610193446188</v>
+        <v>0.03174536027228183</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2306074264.00504</v>
+        <v>1556817590.328347</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1732623065762053</v>
+        <v>0.1768478690322904</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04003167575386054</v>
+        <v>0.0380335676542836</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4118545969.98077</v>
+        <v>5080876644.515633</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1445157752019471</v>
+        <v>0.1447561030008239</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05284657748372564</v>
+        <v>0.06030939414489291</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>42</v>
+      </c>
+      <c r="J46" t="n">
+        <v>72</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3602600105.540497</v>
+        <v>3144016750.948303</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1552724083118695</v>
+        <v>0.1540900731568298</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04111013337471493</v>
+        <v>0.04793343553686636</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>71</v>
+      </c>
+      <c r="K47" t="n">
+        <v>99.34990816224952</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3209327495.264559</v>
+        <v>4338179978.227345</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09740393148032173</v>
+        <v>0.103589409772955</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03881107380139059</v>
+        <v>0.02459080110010733</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>72</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1219733643.229196</v>
+        <v>1428579309.278807</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1772943894584605</v>
+        <v>0.1911775539137741</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03139300690408117</v>
+        <v>0.03118991974040692</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4149163383.897234</v>
+        <v>3697984887.373946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1479373070461018</v>
+        <v>0.1427342953593921</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04273392018882775</v>
+        <v>0.04169510053265692</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>72</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1007240667.510811</v>
+        <v>1355314711.122378</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1392185876670357</v>
+        <v>0.143198621567824</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0358173682230138</v>
+        <v>0.04268866237890195</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3775608013.985343</v>
+        <v>3641457702.673234</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1166650414460658</v>
+        <v>0.09131837289029615</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04991887636500662</v>
+        <v>0.04731151815948528</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>71</v>
+      </c>
+      <c r="K52" t="n">
+        <v>166.7544224593152</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3787120509.328034</v>
+        <v>2848503928.854025</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1718837225299131</v>
+        <v>0.1961543232518594</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02861530874424591</v>
+        <v>0.02939373632387662</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4961674581.231524</v>
+        <v>4970157359.808388</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1601676915899237</v>
+        <v>0.1273210503709226</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04333243290773916</v>
+        <v>0.04935685951314649</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>32</v>
+      </c>
+      <c r="J54" t="n">
+        <v>71</v>
+      </c>
+      <c r="K54" t="n">
+        <v>180.60265294916</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3981305046.782465</v>
+        <v>4077824521.478711</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1798410140214346</v>
+        <v>0.1670536432462452</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02485979112341998</v>
+        <v>0.02420575363064293</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>33</v>
+      </c>
+      <c r="J55" t="n">
+        <v>72</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1156505777.588294</v>
+        <v>1641405988.411892</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1576784281811718</v>
+        <v>0.1440031545929477</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05181177631959717</v>
+        <v>0.04272028811205934</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3044857538.103427</v>
+        <v>3239271504.740174</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1431257998484915</v>
+        <v>0.1774858716697758</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01669370667618589</v>
+        <v>0.02714998584002211</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>70</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1462436577.706074</v>
+        <v>1779588912.345955</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1912162343120304</v>
+        <v>0.1313932760303373</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03957620055949989</v>
+        <v>0.03902201119971428</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3379288329.069108</v>
+        <v>4411155436.450465</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1241422875760444</v>
+        <v>0.08560707850698158</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04881144364281775</v>
+        <v>0.03863937331542714</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>35</v>
+      </c>
+      <c r="J59" t="n">
+        <v>71</v>
+      </c>
+      <c r="K59" t="n">
+        <v>162.1722394323831</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3773514549.467992</v>
+        <v>3486149397.704249</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1985466250336407</v>
+        <v>0.151650575757507</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02048172627383815</v>
+        <v>0.0235542022016247</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2471186924.157894</v>
+        <v>2552434151.986157</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1652446181347815</v>
+        <v>0.1449836270160837</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02199390495787694</v>
+        <v>0.02369961836446757</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1571673304.045145</v>
+        <v>1497314027.915557</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1203694089430944</v>
+        <v>0.1877604422027301</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04744933490210077</v>
+        <v>0.04006824466322882</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3441832125.60079</v>
+        <v>4973383668.398576</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09889515449950177</v>
+        <v>0.08813401933058582</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04111821180576751</v>
+        <v>0.0361651425178961</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>35</v>
+      </c>
+      <c r="J63" t="n">
+        <v>72</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3877786255.3844</v>
+        <v>3883299364.341717</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1576662943803983</v>
+        <v>0.1156870235389937</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02984101833875532</v>
+        <v>0.03249323928823549</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>35</v>
+      </c>
+      <c r="J64" t="n">
+        <v>72</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5529429565.06848</v>
+        <v>4922145131.13588</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1258585731779546</v>
+        <v>0.1660483787326017</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03194520161021008</v>
+        <v>0.02528566510847031</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>57</v>
+      </c>
+      <c r="J65" t="n">
+        <v>72</v>
+      </c>
+      <c r="K65" t="n">
+        <v>186.0657138204909</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5219337817.452328</v>
+        <v>5427591204.951289</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1035226015410108</v>
+        <v>0.1613700280473004</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0499186037519496</v>
+        <v>0.03136924906530101</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>35</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2475219948.819168</v>
+        <v>2963512366.213953</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07882141575106566</v>
+        <v>0.07653633974414205</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0319231827285525</v>
+        <v>0.0445709153345623</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5379942542.686412</v>
+        <v>4498593852.030976</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1431573433256085</v>
+        <v>0.136652476187465</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03500441370178949</v>
+        <v>0.03127887085359583</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>36</v>
+      </c>
+      <c r="J68" t="n">
+        <v>71</v>
+      </c>
+      <c r="K68" t="n">
+        <v>172.458925865679</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1760763840.799633</v>
+        <v>2042873057.945128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1243550347768303</v>
+        <v>0.1688034633083198</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0372236188625762</v>
+        <v>0.06013332239754524</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3325306519.425419</v>
+        <v>2318784644.530791</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09081721239045469</v>
+        <v>0.06751897457684801</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03652333408340341</v>
+        <v>0.03512453266455048</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4215225307.731083</v>
+        <v>4823304293.7995</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1460370813146732</v>
+        <v>0.148214296056092</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02494230982186089</v>
+        <v>0.02940481051238796</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>59</v>
+      </c>
+      <c r="J71" t="n">
+        <v>72</v>
+      </c>
+      <c r="K71" t="n">
+        <v>187.1821599906873</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1761285215.978232</v>
+        <v>1934318263.595439</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0760437675405652</v>
+        <v>0.1031895315504548</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03656605148787065</v>
+        <v>0.03640101963464382</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2769970355.668139</v>
+        <v>3406112371.817451</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1112682437276911</v>
+        <v>0.09974157603593699</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05239125814892075</v>
+        <v>0.04689109481704944</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="n">
+        <v>147.2899797168415</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3082295208.120671</v>
+        <v>3395199647.679826</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1389120087374714</v>
+        <v>0.1119060679083449</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02912203590685045</v>
+        <v>0.02639902245609719</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2002388247.627243</v>
+        <v>2308725245.451237</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1103124031124323</v>
+        <v>0.1135878969522455</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03028186533393202</v>
+        <v>0.03746832547736562</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3367813660.800717</v>
+        <v>4795340686.312591</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1166175783387855</v>
+        <v>0.1191509935051446</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03134350896241143</v>
+        <v>0.03422271275483613</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>33</v>
+      </c>
+      <c r="J76" t="n">
+        <v>71</v>
+      </c>
+      <c r="K76" t="n">
+        <v>149.4986652650182</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1705021440.900626</v>
+        <v>1751550300.624721</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1155411365756296</v>
+        <v>0.1632529873758138</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02344056963845318</v>
+        <v>0.0221231766679956</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4703908881.17442</v>
+        <v>4205690717.045262</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1233890179249533</v>
+        <v>0.09519875369991723</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04818158915303952</v>
+        <v>0.04194898682493804</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>33</v>
+      </c>
+      <c r="J78" t="n">
+        <v>72</v>
+      </c>
+      <c r="K78" t="n">
+        <v>189.6799843876654</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1498984549.991509</v>
+        <v>1241414460.836802</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1586927940899572</v>
+        <v>0.1603731783886305</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02799785752984082</v>
+        <v>0.02987846657243089</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5414221456.948685</v>
+        <v>3710722867.49816</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07553477384118895</v>
+        <v>0.08612839716280739</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03140554267219323</v>
+        <v>0.02880721441977288</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>35</v>
+      </c>
+      <c r="J80" t="n">
+        <v>71</v>
+      </c>
+      <c r="K80" t="n">
+        <v>128.5378349308752</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4189665395.786833</v>
+        <v>3796587742.859625</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08932131493106985</v>
+        <v>0.1065694823055445</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02861441763913926</v>
+        <v>0.0284177535166796</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>32</v>
+      </c>
+      <c r="J81" t="n">
+        <v>72</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5050941954.106752</v>
+        <v>3907893184.721766</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1866448908019832</v>
+        <v>0.1445280546198427</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02854717676136754</v>
+        <v>0.01899918327538815</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>44</v>
+      </c>
+      <c r="J82" t="n">
+        <v>72</v>
+      </c>
+      <c r="K82" t="n">
+        <v>191.5254809002286</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2176258471.245264</v>
+        <v>1943312384.150536</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1350171219973814</v>
+        <v>0.1477624355179099</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04448744941850113</v>
+        <v>0.04181150436461218</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2113795892.833253</v>
+        <v>2486530295.215343</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09617306005501172</v>
+        <v>0.0950268781905353</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03305934726109904</v>
+        <v>0.05116885782333104</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2458924636.870562</v>
+        <v>3377487759.971361</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1839280792958208</v>
+        <v>0.1297981821325901</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04939623275983705</v>
+        <v>0.04846083212535903</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2176409690.9733</v>
+        <v>2205226374.157544</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349930038762209</v>
+        <v>0.1173295601075401</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01783099551589689</v>
+        <v>0.02310369736080216</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1509052860.297284</v>
+        <v>1330191566.765805</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1374735374797232</v>
+        <v>0.1303470546061749</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02749588354828467</v>
+        <v>0.03720954415016328</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2380280191.587493</v>
+        <v>2383481884.102325</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1312673318748118</v>
+        <v>0.1376427623409343</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02528304001069635</v>
+        <v>0.0274605942477792</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3400666072.002196</v>
+        <v>2881241295.64394</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1038285748591841</v>
+        <v>0.1006457508047206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02672999226500296</v>
+        <v>0.02702815330726803</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1636698105.349367</v>
+        <v>1570276570.525393</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082365969457253</v>
+        <v>0.132297865631465</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05288206325708126</v>
+        <v>0.03424825709022427</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1653138061.718671</v>
+        <v>1708106198.099717</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1519274252050145</v>
+        <v>0.1883904172820886</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05084293682647884</v>
+        <v>0.05428870990284666</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2804530585.458965</v>
+        <v>2427163819.763633</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06796599804210354</v>
+        <v>0.08552293631164982</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03329748072753706</v>
+        <v>0.03633054918268079</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4109909982.55977</v>
+        <v>4999990524.090339</v>
       </c>
       <c r="F93" t="n">
-        <v>0.120844667433023</v>
+        <v>0.08945350667204895</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04976767242223936</v>
+        <v>0.04425146282499811</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>32</v>
+      </c>
+      <c r="J93" t="n">
+        <v>72</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2411379547.57505</v>
+        <v>1531199145.302088</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1081396055424684</v>
+        <v>0.1140660738754511</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04133493559873291</v>
+        <v>0.03076429619498927</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2866277845.077942</v>
+        <v>3210410231.270256</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09946432312762771</v>
+        <v>0.09613474566167027</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04696249100544536</v>
+        <v>0.03248007858261101</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1544501745.077872</v>
+        <v>2353902308.508687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1353192941515317</v>
+        <v>0.09920506546169322</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04413592726063587</v>
+        <v>0.03941518174593413</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4000337948.622139</v>
+        <v>4102000950.142285</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1304939654044911</v>
+        <v>0.1768456823899549</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0209162290270407</v>
+        <v>0.02785571020508073</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>35</v>
+      </c>
+      <c r="J97" t="n">
+        <v>71</v>
+      </c>
+      <c r="K97" t="n">
+        <v>177.6332743751827</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2937225259.34831</v>
+        <v>3347447387.530751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1268685544708214</v>
+        <v>0.1034948025401491</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03042814292293971</v>
+        <v>0.03268277611818463</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2672211011.391778</v>
+        <v>2076097677.866747</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1350886243283589</v>
+        <v>0.105928543822611</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0247813011074522</v>
+        <v>0.03353147783782059</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3558457148.705545</v>
+        <v>4575778368.136246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1437798503097147</v>
+        <v>0.142377344045652</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02649973471912125</v>
+        <v>0.02270691429501346</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="n">
+        <v>71</v>
+      </c>
+      <c r="K100" t="n">
+        <v>171.0946357439065</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3265454029.645118</v>
+        <v>3184167575.216717</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1614778475766023</v>
+        <v>0.1878650581008395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04074077274087748</v>
+        <v>0.046932596227348</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
